--- a/data/Subset1_WithDialogActs/Math AU 1 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math AU 1 transcript.xlsx_with_dialog_acts.xlsx
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5425,12 +5425,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5467,12 +5467,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5551,12 +5551,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6261,12 +6261,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6471,12 +6471,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6815,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7235,12 +7235,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8167,12 +8167,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8251,12 +8251,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8297,12 +8297,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8339,12 +8339,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8553,12 +8553,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8679,12 +8679,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8847,12 +8847,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9187,12 +9187,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9859,12 +9859,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10615,12 +10615,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10657,12 +10657,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11287,12 +11287,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11413,12 +11413,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12169,12 +12169,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12337,12 +12337,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12547,12 +12547,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12631,12 +12631,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13765,12 +13765,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13807,12 +13807,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13975,12 +13975,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14269,12 +14269,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14479,12 +14479,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14647,12 +14647,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15945,12 +15945,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16401,12 +16401,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16695,12 +16695,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17109,12 +17109,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17193,12 +17193,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17655,12 +17655,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17995,12 +17995,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18331,12 +18331,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18835,12 +18835,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18961,12 +18961,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19469,12 +19469,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19977,12 +19977,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20145,12 +20145,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20271,12 +20271,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20565,12 +20565,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20607,12 +20607,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20817,12 +20817,12 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21489,12 +21489,12 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21657,12 +21657,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22287,12 +22287,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22371,12 +22371,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
